--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H2">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I2">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J2">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.105980333333334</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N2">
-        <v>15.317941</v>
+        <v>19.732936</v>
       </c>
       <c r="O2">
-        <v>0.04494800244635684</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P2">
-        <v>0.04494800244635684</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q2">
-        <v>124.8006742621665</v>
+        <v>156.3145007600658</v>
       </c>
       <c r="R2">
-        <v>1123.206068359498</v>
+        <v>1406.830506840592</v>
       </c>
       <c r="S2">
-        <v>0.01501710704847125</v>
+        <v>0.02020243176889948</v>
       </c>
       <c r="T2">
-        <v>0.01501710704847125</v>
+        <v>0.02020243176889948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H3">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I3">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J3">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>278.476586</v>
       </c>
       <c r="O3">
-        <v>0.8171441754985934</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P3">
-        <v>0.8171441754985934</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q3">
-        <v>2268.847079318701</v>
+        <v>2205.952956719544</v>
       </c>
       <c r="R3">
-        <v>20419.62371386831</v>
+        <v>19853.57661047589</v>
       </c>
       <c r="S3">
-        <v>0.2730074950970768</v>
+        <v>0.2851022386076287</v>
       </c>
       <c r="T3">
-        <v>0.2730074950970768</v>
+        <v>0.2851022386076287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H4">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I4">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J4">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04351533333333333</v>
+        <v>0.17749</v>
       </c>
       <c r="N4">
-        <v>0.130546</v>
+        <v>0.53247</v>
       </c>
       <c r="O4">
-        <v>0.0003830659699865731</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P4">
-        <v>0.0003830659699865732</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q4">
-        <v>1.063604359243111</v>
+        <v>4.217962406593333</v>
       </c>
       <c r="R4">
-        <v>9.572439233188</v>
+        <v>37.96166165934</v>
       </c>
       <c r="S4">
-        <v>0.0001279821652759811</v>
+        <v>0.0005451387894830198</v>
       </c>
       <c r="T4">
-        <v>0.0001279821652759812</v>
+        <v>0.0005451387894830198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H5">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I5">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J5">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.62246733333333</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N5">
-        <v>46.867402</v>
+        <v>36.272756</v>
       </c>
       <c r="O5">
-        <v>0.1375247560850632</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P5">
-        <v>0.1375247560850632</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q5">
-        <v>381.8452734943951</v>
+        <v>287.3347253207369</v>
       </c>
       <c r="R5">
-        <v>3436.607461449556</v>
+        <v>2586.012527886632</v>
       </c>
       <c r="S5">
-        <v>0.04594695807470049</v>
+        <v>0.03713577534331125</v>
       </c>
       <c r="T5">
-        <v>0.04594695807470049</v>
+        <v>0.03713577534331126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.12806966666666</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H6">
-        <v>75.384209</v>
+        <v>71.293522</v>
       </c>
       <c r="I6">
-        <v>0.3434766466349131</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J6">
-        <v>0.343476646634913</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.105980333333334</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N6">
-        <v>15.317941</v>
+        <v>0.067999</v>
       </c>
       <c r="O6">
-        <v>0.04494800244635684</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P6">
-        <v>0.04494800244635684</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q6">
-        <v>128.3034295326299</v>
+        <v>0.5386542447197777</v>
       </c>
       <c r="R6">
-        <v>1154.730865793669</v>
+        <v>4.847888202478</v>
       </c>
       <c r="S6">
-        <v>0.01543858915321252</v>
+        <v>6.961686582540962E-05</v>
       </c>
       <c r="T6">
-        <v>0.01543858915321251</v>
+        <v>6.961686582540964E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>75.384209</v>
       </c>
       <c r="I7">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J7">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.82552866666667</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N7">
-        <v>278.476586</v>
+        <v>19.732936</v>
       </c>
       <c r="O7">
-        <v>0.8171441754985934</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P7">
-        <v>0.8171441754985934</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q7">
-        <v>2332.526351181164</v>
+        <v>165.2835301786249</v>
       </c>
       <c r="R7">
-        <v>20992.73716063047</v>
+        <v>1487.551771607624</v>
       </c>
       <c r="S7">
-        <v>0.2806699412175078</v>
+        <v>0.02136160896602861</v>
       </c>
       <c r="T7">
-        <v>0.2806699412175077</v>
+        <v>0.02136160896602861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>75.384209</v>
       </c>
       <c r="I8">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J8">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.04351533333333333</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N8">
-        <v>0.130546</v>
+        <v>278.476586</v>
       </c>
       <c r="O8">
-        <v>0.0003830659699865731</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P8">
-        <v>0.0003830659699865732</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q8">
-        <v>1.093456327568222</v>
+        <v>2332.526351181164</v>
       </c>
       <c r="R8">
-        <v>9.841106948114</v>
+        <v>20992.73716063047</v>
       </c>
       <c r="S8">
-        <v>0.0001315742148109384</v>
+        <v>0.3014608640258417</v>
       </c>
       <c r="T8">
-        <v>0.0001315742148109384</v>
+        <v>0.3014608640258417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>75.384209</v>
       </c>
       <c r="I9">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J9">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.62246733333333</v>
+        <v>0.17749</v>
       </c>
       <c r="N9">
-        <v>46.867402</v>
+        <v>0.53247</v>
       </c>
       <c r="O9">
-        <v>0.1375247560850632</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P9">
-        <v>0.1375247560850632</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q9">
-        <v>392.5624475172242</v>
+        <v>4.459981085136667</v>
       </c>
       <c r="R9">
-        <v>3533.062027655018</v>
+        <v>40.13982976623</v>
       </c>
       <c r="S9">
-        <v>0.04723654204938187</v>
+        <v>0.0005764178187240486</v>
       </c>
       <c r="T9">
-        <v>0.04723654204938186</v>
+        <v>0.0005764178187240486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.509850333333333</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H10">
-        <v>19.529551</v>
+        <v>75.384209</v>
       </c>
       <c r="I10">
-        <v>0.0889834194289352</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J10">
-        <v>0.0889834194289352</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.105980333333334</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N10">
-        <v>15.317941</v>
+        <v>36.272756</v>
       </c>
       <c r="O10">
-        <v>0.04494800244635684</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P10">
-        <v>0.04494800244635684</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q10">
-        <v>33.23916777494345</v>
+        <v>303.8214465900004</v>
       </c>
       <c r="R10">
-        <v>299.152509974491</v>
+        <v>2734.393019310004</v>
       </c>
       <c r="S10">
-        <v>0.003999626954176976</v>
+        <v>0.03926655566065627</v>
       </c>
       <c r="T10">
-        <v>0.003999626954176976</v>
+        <v>0.03926655566065628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.509850333333333</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H11">
-        <v>19.529551</v>
+        <v>75.384209</v>
       </c>
       <c r="I11">
-        <v>0.0889834194289352</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J11">
-        <v>0.0889834194289352</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>92.82552866666667</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N11">
-        <v>278.476586</v>
+        <v>0.067999</v>
       </c>
       <c r="O11">
-        <v>0.8171441754985934</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P11">
-        <v>0.8171441754985934</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q11">
-        <v>604.2802987325429</v>
+        <v>0.5695612030878888</v>
       </c>
       <c r="R11">
-        <v>5438.522688592885</v>
+        <v>5.126050827791</v>
       </c>
       <c r="S11">
-        <v>0.07271228290230278</v>
+        <v>7.361134947587016E-05</v>
       </c>
       <c r="T11">
-        <v>0.07271228290230278</v>
+        <v>7.361134947587016E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H12">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I12">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J12">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04351533333333333</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N12">
-        <v>0.130546</v>
+        <v>19.732936</v>
       </c>
       <c r="O12">
-        <v>0.0003830659699865731</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P12">
-        <v>0.0003830659699865732</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q12">
-        <v>0.283278307205111</v>
+        <v>16.32429933103822</v>
       </c>
       <c r="R12">
-        <v>2.549504764846</v>
+        <v>146.918693979344</v>
       </c>
       <c r="S12">
-        <v>3.408651987626714E-05</v>
+        <v>0.002109788546851463</v>
       </c>
       <c r="T12">
-        <v>3.408651987626715E-05</v>
+        <v>0.002109788546851463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H13">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I13">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J13">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.62246733333333</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N13">
-        <v>46.867402</v>
+        <v>278.476586</v>
       </c>
       <c r="O13">
-        <v>0.1375247560850632</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P13">
-        <v>0.1375247560850632</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q13">
-        <v>101.6999241773891</v>
+        <v>230.3729737201604</v>
       </c>
       <c r="R13">
-        <v>915.2993175965019</v>
+        <v>2073.356763481444</v>
       </c>
       <c r="S13">
-        <v>0.01223742305257919</v>
+        <v>0.02977391259511998</v>
       </c>
       <c r="T13">
-        <v>0.01223742305257919</v>
+        <v>0.02977391259511998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.51178733333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H14">
-        <v>31.535362</v>
+        <v>7.445354</v>
       </c>
       <c r="I14">
-        <v>0.1436860654753049</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J14">
-        <v>0.1436860654753049</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>5.105980333333334</v>
+        <v>0.17749</v>
       </c>
       <c r="N14">
-        <v>15.317941</v>
+        <v>0.53247</v>
       </c>
       <c r="O14">
-        <v>0.04494800244635684</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P14">
-        <v>0.04494800244635684</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q14">
-        <v>53.67297939218245</v>
+        <v>0.4404919604866667</v>
       </c>
       <c r="R14">
-        <v>483.056814529642</v>
+        <v>3.96442764438</v>
       </c>
       <c r="S14">
-        <v>0.006458401622491392</v>
+        <v>5.693015512450851E-05</v>
       </c>
       <c r="T14">
-        <v>0.006458401622491392</v>
+        <v>5.693015512450851E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.51178733333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H15">
-        <v>31.535362</v>
+        <v>7.445354</v>
       </c>
       <c r="I15">
-        <v>0.1436860654753049</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J15">
-        <v>0.1436860654753049</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.82552866666667</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N15">
-        <v>278.476586</v>
+        <v>36.272756</v>
       </c>
       <c r="O15">
-        <v>0.8171441754985934</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P15">
-        <v>0.8171441754985934</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q15">
-        <v>975.7622164482368</v>
+        <v>30.00705655284711</v>
       </c>
       <c r="R15">
-        <v>8781.859948034131</v>
+        <v>270.063508975624</v>
       </c>
       <c r="S15">
-        <v>0.1174122315034549</v>
+        <v>0.003878178349716315</v>
       </c>
       <c r="T15">
-        <v>0.1174122315034549</v>
+        <v>0.003878178349716317</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.51178733333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H16">
-        <v>31.535362</v>
+        <v>7.445354</v>
       </c>
       <c r="I16">
-        <v>0.1436860654753049</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J16">
-        <v>0.1436860654753049</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.04351533333333333</v>
+        <v>0.02266633333333333</v>
       </c>
       <c r="N16">
-        <v>0.130546</v>
+        <v>0.067999</v>
       </c>
       <c r="O16">
-        <v>0.0003830659699865731</v>
+        <v>0.0002029319641455607</v>
       </c>
       <c r="P16">
-        <v>0.0003830659699865732</v>
+        <v>0.0002029319641455608</v>
       </c>
       <c r="Q16">
-        <v>0.4574239297391111</v>
+        <v>0.05625295851622222</v>
       </c>
       <c r="R16">
-        <v>4.116815367651999</v>
+        <v>0.506276626646</v>
       </c>
       <c r="S16">
-        <v>5.504124204485191E-05</v>
+        <v>7.270256762468221E-06</v>
       </c>
       <c r="T16">
-        <v>5.504124204485193E-05</v>
+        <v>7.270256762468222E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H17">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I17">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J17">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.62246733333333</v>
+        <v>6.577645333333334</v>
       </c>
       <c r="N17">
-        <v>46.867402</v>
+        <v>19.732936</v>
       </c>
       <c r="O17">
-        <v>0.1375247560850632</v>
+        <v>0.05888974044969256</v>
       </c>
       <c r="P17">
-        <v>0.1375247560850632</v>
+        <v>0.05888974044969258</v>
       </c>
       <c r="Q17">
-        <v>164.2200542299471</v>
+        <v>61.80144193529956</v>
       </c>
       <c r="R17">
-        <v>1477.980488069524</v>
+        <v>556.2129774176962</v>
       </c>
       <c r="S17">
-        <v>0.01976039110731372</v>
+        <v>0.007987355030061682</v>
       </c>
       <c r="T17">
-        <v>0.01976039110731372</v>
+        <v>0.007987355030061684</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.566248333333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H18">
-        <v>19.698745</v>
+        <v>28.187036</v>
       </c>
       <c r="I18">
-        <v>0.08975432607532249</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J18">
-        <v>0.08975432607532248</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.105980333333334</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N18">
-        <v>15.317941</v>
+        <v>278.476586</v>
       </c>
       <c r="O18">
-        <v>0.04494800244635684</v>
+        <v>0.8310681122594473</v>
       </c>
       <c r="P18">
-        <v>0.04494800244635684</v>
+        <v>0.8310681122594474</v>
       </c>
       <c r="Q18">
-        <v>33.52713485378278</v>
+        <v>872.1588394154552</v>
       </c>
       <c r="R18">
-        <v>301.744213684045</v>
+        <v>7849.429554739097</v>
       </c>
       <c r="S18">
-        <v>0.004034277668004705</v>
+        <v>0.112719737191744</v>
       </c>
       <c r="T18">
-        <v>0.004034277668004705</v>
+        <v>0.1127197371917441</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.566248333333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H19">
-        <v>19.698745</v>
+        <v>28.187036</v>
       </c>
       <c r="I19">
-        <v>0.08975432607532249</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J19">
-        <v>0.08975432607532248</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>92.82552866666667</v>
+        <v>0.17749</v>
       </c>
       <c r="N19">
-        <v>278.476586</v>
+        <v>0.53247</v>
       </c>
       <c r="O19">
-        <v>0.8171441754985934</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="P19">
-        <v>0.8171441754985934</v>
+        <v>0.001589070176746522</v>
       </c>
       <c r="Q19">
-        <v>609.5154728982856</v>
+        <v>1.667639006546667</v>
       </c>
       <c r="R19">
-        <v>5485.63925608457</v>
+        <v>15.00875105892</v>
       </c>
       <c r="S19">
-        <v>0.07334222477825131</v>
+        <v>0.0002155293532020245</v>
       </c>
       <c r="T19">
-        <v>0.07334222477825129</v>
+        <v>0.0002155293532020245</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,108 +1656,418 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.566248333333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H20">
-        <v>19.698745</v>
+        <v>28.187036</v>
       </c>
       <c r="I20">
-        <v>0.08975432607532249</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J20">
-        <v>0.08975432607532248</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04351533333333333</v>
+        <v>12.09091866666667</v>
       </c>
       <c r="N20">
-        <v>0.130546</v>
+        <v>36.272756</v>
       </c>
       <c r="O20">
-        <v>0.0003830659699865731</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="P20">
-        <v>0.0003830659699865732</v>
+        <v>0.108250145149968</v>
       </c>
       <c r="Q20">
-        <v>0.2857324849744444</v>
+        <v>113.6023865768018</v>
       </c>
       <c r="R20">
-        <v>2.57159236477</v>
+        <v>1022.421479191216</v>
       </c>
       <c r="S20">
-        <v>3.438182797853459E-05</v>
+        <v>0.01468222367369965</v>
       </c>
       <c r="T20">
-        <v>3.438182797853459E-05</v>
+        <v>0.01468222367369965</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.395678666666667</v>
+      </c>
+      <c r="H21">
+        <v>28.187036</v>
+      </c>
+      <c r="I21">
+        <v>0.1356323693918298</v>
+      </c>
+      <c r="J21">
+        <v>0.1356323693918298</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.067999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002029319641455607</v>
+      </c>
+      <c r="P21">
+        <v>0.0002029319641455608</v>
+      </c>
+      <c r="Q21">
+        <v>0.2129655845515556</v>
+      </c>
+      <c r="R21">
+        <v>1.916690260964</v>
+      </c>
+      <c r="S21">
+        <v>2.752414312240025E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.752414312240026E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.503089000000001</v>
+      </c>
+      <c r="H22">
+        <v>25.509267</v>
+      </c>
+      <c r="I22">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="J22">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.577645333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.732936</v>
+      </c>
+      <c r="O22">
+        <v>0.05888974044969256</v>
+      </c>
+      <c r="P22">
+        <v>0.05888974044969258</v>
+      </c>
+      <c r="Q22">
+        <v>55.93030367976801</v>
+      </c>
+      <c r="R22">
+        <v>503.3727331179121</v>
+      </c>
+      <c r="S22">
+        <v>0.007228556137851334</v>
+      </c>
+      <c r="T22">
+        <v>0.007228556137851335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.503089000000001</v>
+      </c>
+      <c r="H23">
+        <v>25.509267</v>
+      </c>
+      <c r="I23">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="J23">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>92.82552866666667</v>
+      </c>
+      <c r="N23">
+        <v>278.476586</v>
+      </c>
+      <c r="O23">
+        <v>0.8310681122594473</v>
+      </c>
+      <c r="P23">
+        <v>0.8310681122594474</v>
+      </c>
+      <c r="Q23">
+        <v>789.3037317247181</v>
+      </c>
+      <c r="R23">
+        <v>7103.733585522462</v>
+      </c>
+      <c r="S23">
+        <v>0.1020113598391129</v>
+      </c>
+      <c r="T23">
+        <v>0.1020113598391129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.503089000000001</v>
+      </c>
+      <c r="H24">
+        <v>25.509267</v>
+      </c>
+      <c r="I24">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="J24">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.17749</v>
+      </c>
+      <c r="N24">
+        <v>0.53247</v>
+      </c>
+      <c r="O24">
+        <v>0.001589070176746522</v>
+      </c>
+      <c r="P24">
+        <v>0.001589070176746522</v>
+      </c>
+      <c r="Q24">
+        <v>1.50921326661</v>
+      </c>
+      <c r="R24">
+        <v>13.58291939949</v>
+      </c>
+      <c r="S24">
+        <v>0.0001950540602129202</v>
+      </c>
+      <c r="T24">
+        <v>0.0001950540602129202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6.566248333333333</v>
-      </c>
-      <c r="H21">
-        <v>19.698745</v>
-      </c>
-      <c r="I21">
-        <v>0.08975432607532249</v>
-      </c>
-      <c r="J21">
-        <v>0.08975432607532248</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>15.62246733333333</v>
-      </c>
-      <c r="N21">
-        <v>46.867402</v>
-      </c>
-      <c r="O21">
-        <v>0.1375247560850632</v>
-      </c>
-      <c r="P21">
-        <v>0.1375247560850632</v>
-      </c>
-      <c r="Q21">
-        <v>102.5810000900544</v>
-      </c>
-      <c r="R21">
-        <v>923.2290008104899</v>
-      </c>
-      <c r="S21">
-        <v>0.01234344180108795</v>
-      </c>
-      <c r="T21">
-        <v>0.01234344180108795</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.503089000000001</v>
+      </c>
+      <c r="H25">
+        <v>25.509267</v>
+      </c>
+      <c r="I25">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="J25">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.09091866666667</v>
+      </c>
+      <c r="N25">
+        <v>36.272756</v>
+      </c>
+      <c r="O25">
+        <v>0.108250145149968</v>
+      </c>
+      <c r="P25">
+        <v>0.108250145149968</v>
+      </c>
+      <c r="Q25">
+        <v>102.810157514428</v>
+      </c>
+      <c r="R25">
+        <v>925.291417629852</v>
+      </c>
+      <c r="S25">
+        <v>0.01328741212258448</v>
+      </c>
+      <c r="T25">
+        <v>0.01328741212258449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.503089000000001</v>
+      </c>
+      <c r="H26">
+        <v>25.509267</v>
+      </c>
+      <c r="I26">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="J26">
+        <v>0.122747291508721</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.067999</v>
+      </c>
+      <c r="O26">
+        <v>0.0002029319641455607</v>
+      </c>
+      <c r="P26">
+        <v>0.0002029319641455608</v>
+      </c>
+      <c r="Q26">
+        <v>0.192733849637</v>
+      </c>
+      <c r="R26">
+        <v>1.734604646733</v>
+      </c>
+      <c r="S26">
+        <v>2.490934895941247E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.490934895941247E-05</v>
       </c>
     </row>
   </sheetData>
